--- a/Listas de precios/minorista/TUERCAS dismay.xlsx
+++ b/Listas de precios/minorista/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TUERCAS dismay.xlsx
+++ b/Listas de precios/minorista/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/TUERCAS dismay.xlsx
+++ b/Listas de precios/minorista/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
